--- a/Labor 1 Ergebnisse und Graphen.xlsx
+++ b/Labor 1 Ergebnisse und Graphen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/dhbw/Studienjahr 2/Semester 3/Messdatenerfassung/Labor/Labor 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C073E-FC53-7740-965B-A529B675EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C46D07-2CE4-A54A-A161-0118B82A6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
+    <workbookView xWindow="2200" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrale Nichtlinearität" sheetId="1" r:id="rId1"/>
@@ -18,30 +18,8 @@
     <sheet name="Konversionszeit" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Integrale Nichtlinearität'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Integrale Nichtlinearität'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Integrale Nichtlinearität'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Integrale Nichtlinearität'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Integrale Nichtlinearität'!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Integrale Nichtlinearität'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Integrale Nichtlinearität'!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Integrale Nichtlinearität'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Integrale Nichtlinearität'!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Integrale Nichtlinearität'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Integrale Nichtlinearität'!$A$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Integrale Nichtlinearität'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Integrale Nichtlinearität'!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Integrale Nichtlinearität'!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Integrale Nichtlinearität'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Integrale Nichtlinearität'!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Integrale Nichtlinearität'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Integrale Nichtlinearität'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Integrale Nichtlinearität'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Integrale Nichtlinearität'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Integrale Nichtlinearität'!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Integrale Nichtlinearität'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Integrale Nichtlinearität'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Integrale Nichtlinearität'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Erwarteter Spannungswert</t>
   </si>
@@ -101,13 +79,17 @@
   <si>
     <t>71,33 clock cycles</t>
   </si>
+  <si>
+    <t>Abweichung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000\V"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -138,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,81 +145,55 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Frequency of 'Abweichung'</cx:v>
+        </cx:txData>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:plotSurface>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E0EE2634-B4D0-8E45-A153-55C36C702839}">
           <cx:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="595959"/>
+            </a:solidFill>
           </cx:spPr>
-        </cx:plotSurface>
-        <cx:series layoutId="clusteredColumn" uniqueId="{8D1A6C25-1AD6-1445-83E6-D36AFC7BBF27}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:v/>
-            </cx:txData>
-          </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{EC1E9F98-C7BC-5446-9CD4-85BC00D8A212}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
-              <cx:v>Erwarteter Spannungswert</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{3C71B6BE-4405-7347-9866-F9334DBB49CC}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
-              <cx:v>Tatsächlicher Spannungswert</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.0030000000000000001"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
+        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Abweichung</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -797,25 +754,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>348574</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204641</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299756</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>777312</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47558</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>729934</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155102</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Chart 7">
+            <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Histogram. Frequency of 'Abweichung'&#10;&#10;Description automatically generated">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568B72DF-3D1C-3EA8-A9C4-55B776951971}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E373846B-C75A-ADB4-1DE0-FF348E9E2492}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -842,8 +799,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6986801" y="1240457"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6109330" y="523312"/>
+              <a:ext cx="4573441" cy="2739237"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1173,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A5E22A-057D-0E49-ADED-789EC45B45EC}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:K24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1143,7 @@
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1196,8 +1153,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>16</f>
         <v>16</v>
@@ -1208,8 +1168,12 @@
       <c r="C2" s="1">
         <v>0.32100000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+16</f>
         <v>32</v>
@@ -1221,187 +1185,247 @@
       <c r="C3" s="1">
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="0">A3+16</f>
+        <f t="shared" ref="A4:A17" si="1">A3+16</f>
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B17" si="1">B3+0.32</f>
+        <f t="shared" ref="B4:B17" si="2">B3+0.32</f>
         <v>0.96</v>
       </c>
       <c r="C4" s="1">
         <v>0.96699999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
       <c r="C5" s="1">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="C6" s="1">
         <v>1.601</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999988987E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="C7" s="1">
         <v>1.9219999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="C8" s="1">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.56</v>
       </c>
       <c r="C9" s="1">
         <v>2.5659999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9999999999997833E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.88</v>
       </c>
       <c r="C10" s="1">
         <v>2.887</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000001172E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="C11" s="1">
         <v>3.2029999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5199999999999996</v>
       </c>
       <c r="C12" s="1">
         <v>3.5339999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000234E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8399999999999994</v>
       </c>
       <c r="C13" s="1">
         <v>3.843</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000005578E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1599999999999993</v>
       </c>
       <c r="C14" s="1">
         <v>4.1580000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4799999999999995</v>
       </c>
       <c r="C15" s="1">
         <v>4.4829999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
       <c r="C16" s="1">
         <v>4.8019999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.12</v>
       </c>
       <c r="C17" s="1">
         <v>5.1189999999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.000000000000334E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Labor 1 Ergebnisse und Graphen.xlsx
+++ b/Labor 1 Ergebnisse und Graphen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C46D07-2CE4-A54A-A161-0118B82A6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD0812-EE3D-0F48-A581-9B827BCA9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrale Nichtlinearität" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Erwarteter Spannungswert</t>
   </si>
@@ -81,6 +81,57 @@
   </si>
   <si>
     <t>Abweichung</t>
+  </si>
+  <si>
+    <t>Bitmuster</t>
+  </si>
+  <si>
+    <t>"00010000"</t>
+  </si>
+  <si>
+    <t>"00100000"</t>
+  </si>
+  <si>
+    <t>"01000000"</t>
+  </si>
+  <si>
+    <t>"00110000"</t>
+  </si>
+  <si>
+    <t>"01010000"</t>
+  </si>
+  <si>
+    <t>"01100000"</t>
+  </si>
+  <si>
+    <t>"01110000"</t>
+  </si>
+  <si>
+    <t>"10000000"</t>
+  </si>
+  <si>
+    <t>"10010000"</t>
+  </si>
+  <si>
+    <t>"10100000"</t>
+  </si>
+  <si>
+    <t>"10110000"</t>
+  </si>
+  <si>
+    <t>"11000000"</t>
+  </si>
+  <si>
+    <t>"11010000"</t>
+  </si>
+  <si>
+    <t>"11100000"</t>
+  </si>
+  <si>
+    <t>"11110000"</t>
+  </si>
+  <si>
+    <t>"11111111"</t>
   </si>
 </sst>
 </file>
@@ -120,15 +171,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000\V"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000\V"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,16 +838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>299756</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108986</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>732096</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>729934</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>155102</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333622</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146095</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -799,7 +883,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6109330" y="523312"/>
+              <a:off x="10684933" y="928631"/>
               <a:ext cx="4573441" cy="2739237"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -831,6 +915,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert" dataDxfId="5">
+      <calculatedColumnFormula>B1+0.32</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{962940AD-7301-4740-ADD3-72ECC3377F93}" name="Abweichung" dataDxfId="3">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8CF873D9-AA03-534B-B4D6-9CE0D868C1A7}" name="Bitmuster" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,307 +1232,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A5E22A-057D-0E49-ADED-789EC45B45EC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.32</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <f>C2-B2</f>
         <v>1.0000000000000009E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <f>A2+16</f>
         <v>32</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f>B2+0.32</f>
         <v>0.64</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D17" si="0">C3-B3</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A17" si="1">A3+16</f>
         <v>48</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B17" si="2">B3+0.32</f>
         <v>0.96</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1.2769999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>-3.0000000000001137E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.601</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>9.9999999999988987E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="2"/>
         <v>1.9200000000000002</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.9219999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1.9999999999997797E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>2.56</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>2.5659999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>5.9999999999997833E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>2.88</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>2.887</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>7.0000000000001172E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>3.1999999999999997</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3.2029999999999998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>3.5199999999999996</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3.5339999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>1.4000000000000234E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>3.8399999999999994</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>3.843</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>3.0000000000005578E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>4.1599999999999993</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>4.1580000000000004</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>-1.9999999999988916E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f t="shared" si="2"/>
         <v>4.4799999999999995</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>4.4829999999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>4.8019999999999996</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>1.9999999999997797E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f>A16+15</f>
+        <v>255</v>
+      </c>
+      <c r="B17" s="3">
         <f t="shared" si="2"/>
         <v>5.12</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>5.1189999999999998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>-1.000000000000334E-3</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1632,6 +1790,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1674,5 +1833,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Labor 1 Ergebnisse und Graphen.xlsx
+++ b/Labor 1 Ergebnisse und Graphen.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/dhbw/Studienjahr 2/Semester 3/Messdatenerfassung/Labor/Labor 1/LaTeX Berricht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD0812-EE3D-0F48-A581-9B827BCA9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72853E8D-392A-4F4E-9287-5D8D8C4044A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrale Nichtlinearität" sheetId="1" r:id="rId1"/>
     <sheet name="Differenzielle Nichtlinearität" sheetId="2" r:id="rId2"/>
     <sheet name="Konversionszeit" sheetId="3" r:id="rId3"/>
+    <sheet name="Monotonie und Nichtlinearität" sheetId="4" r:id="rId4"/>
+    <sheet name="Einschwingverhalten" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Erwarteter Spannungswert</t>
   </si>
@@ -53,9 +55,6 @@
     <t>tatsächlicher Spannungswert</t>
   </si>
   <si>
-    <t>Tatsächlicher Spannungswert</t>
-  </si>
-  <si>
     <t>DNL</t>
   </si>
   <si>
@@ -132,23 +131,60 @@
   </si>
   <si>
     <t>"11111111"</t>
+  </si>
+  <si>
+    <t>∆V in [mV]</t>
+  </si>
+  <si>
+    <t>Erwarteter Spannungswert in [V]</t>
+  </si>
+  <si>
+    <t>Tatsächlicher Spannungswert in [V]</t>
+  </si>
+  <si>
+    <t>Notizen</t>
+  </si>
+  <si>
+    <t>bit 5 vermutlich kaputt: 00010000 -&gt; Output = 0V</t>
+  </si>
+  <si>
+    <t>BITMUSTER  xi+1</t>
+  </si>
+  <si>
+    <t>BITMUSTER xi</t>
+  </si>
+  <si>
+    <t>MONTONIE</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000\V"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,27 +207,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -202,11 +239,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000\V"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000\V"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -883,8 +918,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10684933" y="928631"/>
-              <a:ext cx="4573441" cy="2739237"/>
+              <a:off x="10917496" y="1090579"/>
+              <a:ext cx="4554526" cy="2687716"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -918,14 +953,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E17" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert in [V]" dataDxfId="1">
       <calculatedColumnFormula>B1+0.32</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert in [V]" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{962940AD-7301-4740-ADD3-72ECC3377F93}" name="Abweichung" dataDxfId="3">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
@@ -1234,15 +1269,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A5E22A-057D-0E49-ADED-789EC45B45EC}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1274,12 +1309,12 @@
       <c r="C2" s="3">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>C2-B2</f>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1294,17 +1329,17 @@
       <c r="C3" s="3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D17" si="0">C3-B3</f>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A17" si="1">A3+16</f>
+        <f t="shared" ref="A4:A16" si="1">A3+16</f>
         <v>48</v>
       </c>
       <c r="B4" s="3">
@@ -1314,12 +1349,12 @@
       <c r="C4" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1334,12 +1369,12 @@
       <c r="C5" s="3">
         <v>1.2769999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1354,12 +1389,12 @@
       <c r="C6" s="3">
         <v>1.601</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1374,12 +1409,12 @@
       <c r="C7" s="3">
         <v>1.9219999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999997797E-3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,12 +1429,12 @@
       <c r="C8" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1414,12 +1449,12 @@
       <c r="C9" s="3">
         <v>2.5659999999999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>5.9999999999997833E-3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,12 +1469,12 @@
       <c r="C10" s="3">
         <v>2.887</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,12 +1489,12 @@
       <c r="C11" s="3">
         <v>3.2029999999999998</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1474,12 +1509,12 @@
       <c r="C12" s="3">
         <v>3.5339999999999998</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1.4000000000000234E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1494,12 +1529,12 @@
       <c r="C13" s="3">
         <v>3.843</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>3.0000000000005578E-3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1514,12 +1549,12 @@
       <c r="C14" s="3">
         <v>4.1580000000000004</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>-1.9999999999988916E-3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1534,12 +1569,12 @@
       <c r="C15" s="3">
         <v>4.4829999999999997</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1554,12 +1589,12 @@
       <c r="C16" s="3">
         <v>4.8019999999999996</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999997797E-3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1574,12 +1609,12 @@
       <c r="C17" s="3">
         <v>5.1189999999999998</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>-1.000000000000334E-3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,7 +1820,7 @@
         <v>2.6619999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1809,30 +1844,229 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C31BA-F075-FC4F-B7D4-1B074C620C31}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>C2/10 -1</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9.75</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">C3/10 -1</f>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>9.75</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1111</v>
+      </c>
+      <c r="C6">
+        <v>-150</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11111</v>
+      </c>
+      <c r="C7">
+        <v>170</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>111111</v>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1111111</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD24C-FC57-3C45-B03B-95DF1772DF12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Labor 1 Ergebnisse und Graphen.xlsx
+++ b/Labor 1 Ergebnisse und Graphen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/dhbw/Studienjahr 2/Semester 3/Messdatenerfassung/Labor/Labor 1/LaTeX Berricht/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72853E8D-392A-4F4E-9287-5D8D8C4044A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0094DF00-79DA-4947-B258-A11F6554EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrale Nichtlinearität" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Einschwingverhalten" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Integrale Nichtlinearität'!$D$2:$D$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Erwarteter Spannungswert</t>
   </si>
@@ -79,9 +78,6 @@
     <t>71,33 clock cycles</t>
   </si>
   <si>
-    <t>Abweichung</t>
-  </si>
-  <si>
     <t>Bitmuster</t>
   </si>
   <si>
@@ -136,12 +132,6 @@
     <t>∆V in [mV]</t>
   </si>
   <si>
-    <t>Erwarteter Spannungswert in [V]</t>
-  </si>
-  <si>
-    <t>Tatsächlicher Spannungswert in [V]</t>
-  </si>
-  <si>
     <t>Notizen</t>
   </si>
   <si>
@@ -161,6 +151,18 @@
   </si>
   <si>
     <t>nein</t>
+  </si>
+  <si>
+    <t>Tatsächlicher Spannungswert, [V]</t>
+  </si>
+  <si>
+    <t>Erwarteter Spannungswert, [V]</t>
+  </si>
+  <si>
+    <t>Abweichung, [V]</t>
+  </si>
+  <si>
+    <t>Abweichung, %</t>
   </si>
 </sst>
 </file>
@@ -222,9 +224,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -232,6 +237,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,65 +266,534 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Frequency of 'Abweichung'</cx:v>
-        </cx:txData>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{E0EE2634-B4D0-8E45-A153-55C36C702839}">
-          <cx:spPr>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Erwartete und tatsächliche</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Werte</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13804355677857982"/>
+          <c:y val="0.12746569308692529"/>
+          <c:w val="0.83546980229059198"/>
+          <c:h val="0.71421979428707516"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Integrale Nichtlinearität'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erwarteter Spannungswert, [V]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-800E-3944-8F1D-3DF41A0AA7E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Integrale Nichtlinearität'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tatsächlicher Spannungswert, [V]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1189999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-800E-3944-8F1D-3DF41A0AA7E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1922141872"/>
+        <c:axId val="2145672864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1922141872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="595959"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r">
-              <cx:binSize val="0.0030000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.330000013"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Abweichung</cx:v>
-            </cx:txData>
-          </cx:tx>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Frequency</cx:v>
-            </cx:txData>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145672864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2145672864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spannung, [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922141872"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +837,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -373,7 +848,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -396,7 +871,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -419,7 +894,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -427,11 +902,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -456,14 +931,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -478,7 +953,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -495,7 +970,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -510,8 +985,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -524,7 +1001,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -534,13 +1011,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -559,16 +1036,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -639,6 +1118,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -670,8 +1155,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -726,7 +1211,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -754,30 +1239,22 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -793,7 +1270,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -809,7 +1286,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -823,7 +1300,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -856,7 +1333,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -865,6 +1342,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -873,98 +1356,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>732096</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>99979</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310156</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333622</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146095</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10362</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Histogram. Frequency of 'Abweichung'&#10;&#10;Description automatically generated">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E373846B-C75A-ADB4-1DE0-FF348E9E2492}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10917496" y="1090579"/>
-              <a:ext cx="4554526" cy="2687716"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378769F4-B62A-F521-3808-2D9BE9CE35FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E17" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert in [V]" dataDxfId="1">
-      <calculatedColumnFormula>B1+0.32</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F17" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9AC8E243-F284-FE4B-AAD3-C7C022A9F173}" name="Bitmuster" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert, [V]" dataDxfId="4">
+      <calculatedColumnFormula>C1+0.32</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert in [V]" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{962940AD-7301-4740-ADD3-72ECC3377F93}" name="Abweichung" dataDxfId="3">
-      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert, [V]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{962940AD-7301-4740-ADD3-72ECC3377F93}" name="Abweichung, [V]" dataDxfId="2">
+      <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8CF873D9-AA03-534B-B4D6-9CE0D868C1A7}" name="Bitmuster" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{19C856E6-0804-8B4C-B783-32E60503A52E}" name="Abweichung, %" dataDxfId="0">
+      <calculatedColumnFormula>(ABS(E2)/C2)*100</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1267,354 +1711,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A5E22A-057D-0E49-ADED-789EC45B45EC}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="166" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.32</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2-B2</f>
+      <c r="E2" s="3">
+        <f>D2-C2</f>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F17" si="0">(ABS(E2)/C2)*100</f>
+        <v>0.31250000000000028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+16</f>
         <v>32</v>
       </c>
-      <c r="B3" s="3">
-        <f>B2+0.32</f>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2+0.32</f>
         <v>0.64</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E17" si="1">D3-C3</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15625000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A16" si="2">A3+16</f>
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C17" si="3">C3+0.32</f>
+        <v>0.96</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72916666666666741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A16" si="1">A3+16</f>
-        <v>48</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B17" si="2">B3+0.32</f>
-        <v>0.96</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>7.0000000000000062E-3</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>0.23437500000000888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="C6" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.601</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B5" s="3">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2499999999993117E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <f t="shared" si="2"/>
-        <v>1.28</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="D5" s="3">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>-3.0000000000001137E-3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>0.10416666666665519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.601</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.9219999999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9999999999997797E-3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="C9" s="3">
+        <f t="shared" si="3"/>
+        <v>2.56</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="B9" s="3">
+        <v>5.9999999999997833E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23437499999999153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <f t="shared" si="2"/>
-        <v>2.56</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="D9" s="3">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.887</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0000000000001172E-3</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>5.9999999999997833E-3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+        <v>0.24305555555555963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="B10" s="3">
+        <v>3.0000000000001137E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3750000000003567E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <f t="shared" si="2"/>
-        <v>2.88</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.887</v>
-      </c>
-      <c r="D10" s="3">
+        <v>176</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000234E-2</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>7.0000000000001172E-3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+        <v>0.39772727272727948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8399999999999994</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.843</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="B11" s="3">
+        <v>3.0000000000005578E-3</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>7.812500000001453E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <f t="shared" si="2"/>
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="D11" s="3">
+        <v>208</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1599999999999993</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
+        <v>4.8076923076896441E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>3.0000000000001137E-3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6964285714288266E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.8019999999999996</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>176</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5199999999999996</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="D12" s="3">
+        <v>1.9999999999997797E-3</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>1.4000000000000234E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>3.8399999999999994</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0000000000005578E-3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>4.1599999999999993</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4.1580000000000004</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.9999999999988916E-3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4799999999999995</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.4829999999999997</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0000000000001137E-3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4.8019999999999996</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9999999999997797E-3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1666666666662078E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f>A16+15</f>
         <v>255</v>
       </c>
-      <c r="B17" s="3">
-        <f t="shared" si="2"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="3"/>
         <v>5.12</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>5.1189999999999998</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.000000000000334E-3</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>-1.000000000000334E-3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>1.9531250000006523E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1889,22 +2402,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1940,7 +2453,7 @@
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1958,7 +2471,7 @@
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1976,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1994,10 +2507,10 @@
         <v>-16</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2015,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,7 +2546,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2051,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD24C-FC57-3C45-B03B-95DF1772DF12}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Labor 1 Ergebnisse und Graphen.xlsx
+++ b/Labor 1 Ergebnisse und Graphen.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0094DF00-79DA-4947-B258-A11F6554EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0070E1-F136-594C-9E51-BBDBA66A030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{4A0D7C32-F860-B045-B11A-99C13AEB249A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Integrale Nichtlinearität" sheetId="1" r:id="rId1"/>
-    <sheet name="Differenzielle Nichtlinearität" sheetId="2" r:id="rId2"/>
-    <sheet name="Konversionszeit" sheetId="3" r:id="rId3"/>
-    <sheet name="Monotonie und Nichtlinearität" sheetId="4" r:id="rId4"/>
-    <sheet name="Einschwingverhalten" sheetId="5" r:id="rId5"/>
+    <sheet name="Integrale Nichtlinearität" sheetId="8" r:id="rId1"/>
+    <sheet name="Differenzielle Nichtlinearität" sheetId="9" r:id="rId2"/>
+    <sheet name="Konversionszeit" sheetId="10" r:id="rId3"/>
+    <sheet name="Monotonie und Nichtlinearität" sheetId="11" r:id="rId4"/>
+    <sheet name="Einschwingverhalten" sheetId="12" r:id="rId5"/>
+    <sheet name="Kutools_Chart" sheetId="13" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Differenzielle Nichtlinearität'!$A$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Differenzielle Nichtlinearität'!$A$45:$A$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Differenzielle Nichtlinearität'!$C$44</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Differenzielle Nichtlinearität'!$C$45:$C$63</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Differenzielle Nichtlinearität'!$A$44</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Differenzielle Nichtlinearität'!$A$45:$A$63</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Differenzielle Nichtlinearität'!$C$44</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Differenzielle Nichtlinearität'!$C$45:$C$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,21 +50,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
-  <si>
-    <t>Erwarteter Spannungswert</t>
-  </si>
-  <si>
-    <t>Digitaler Output</t>
-  </si>
-  <si>
-    <t>tatsächlicher Spannungswert</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>DNL</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Konversionszeit</t>
@@ -153,28 +148,45 @@
     <t>nein</t>
   </si>
   <si>
-    <t>Tatsächlicher Spannungswert, [V]</t>
+    <t>Digitaler 
+Output</t>
   </si>
   <si>
-    <t>Erwarteter Spannungswert, [V]</t>
+    <t>Erwarteter 
+Spannungswert [V]</t>
   </si>
   <si>
-    <t>Abweichung, [V]</t>
+    <t>Tatsächlicher 
+Spannungswert [V]</t>
   </si>
   <si>
-    <t>Abweichung, %</t>
+    <t>Abweichung 
+[V]</t>
+  </si>
+  <si>
+    <t>Abweichung
+von der Stufengröße [%]</t>
+  </si>
+  <si>
+    <t>Kutools: Intermediate data of the step chart</t>
+  </si>
+  <si>
+    <t>Idealgerade</t>
+  </si>
+  <si>
+    <t>Tatsächliche
+Gerade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000\V"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="00000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,16 +200,37 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,43 +238,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{1B565D1A-7152-479C-AECC-A6EBDD0D5F42}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -365,7 +470,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Erwarteter Spannungswert, [V]</c:v>
+                  <c:v>Erwarteter 
+Spannungswert [V]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,6 +488,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Integrale Nichtlinearität'!$C$2:$C$17</c:f>
@@ -442,7 +605,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-800E-3944-8F1D-3DF41A0AA7E1}"/>
+              <c16:uniqueId val="{00000000-87CC-42FA-B58C-2E3195FD98D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,7 +618,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tatsächlicher Spannungswert, [V]</c:v>
+                  <c:v>Tatsächlicher 
+Spannungswert [V]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,6 +637,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Integrale Nichtlinearität'!$D$2:$D$17</c:f>
@@ -533,7 +754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-800E-3944-8F1D-3DF41A0AA7E1}"/>
+              <c16:uniqueId val="{00000001-87CC-42FA-B58C-2E3195FD98D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -796,7 +1017,2337 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Histogram von Abweichungen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Integrale Nichtlinearität'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999988987E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999997797E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9999999999997833E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000001172E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4000000000000234E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000005578E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9999999999988916E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9999999999997797E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.000000000000334E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E130-44CF-809C-DD4C42810C7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="70102608"/>
+        <c:axId val="70203664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70102608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70203664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70203664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Abweichung, [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70102608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>DNL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tatsächlich</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$B$22:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6419999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-946C-47F9-ABEB-15C2FEA805B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Erwartet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$C$22:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-946C-47F9-ABEB-15C2FEA805B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500977888"/>
+        <c:axId val="1977685088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500977888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="133"/>
+          <c:min val="124"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977685088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1977685088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500977888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DNL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tatsächlich</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$A$45:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$C$45:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B98F-C448-BB1E-E50DD266AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Erwartet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$B$45:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$C$45:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B98F-C448-BB1E-E50DD266AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ideal Gerade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$D$45:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$C$45:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B98F-C448-BB1E-E50DD266AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tatsächliche Gerade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$E$45:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6520000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Differenzielle Nichtlinearität'!$C$45:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B98F-C448-BB1E-E50DD266AA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2137970912"/>
+        <c:axId val="2137948112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2137970912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.4700000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Analog Input [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137948112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.02"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2137948112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="124"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Digitaler Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137970912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1352,6 +3903,1587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1369,10 +5501,91 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378769F4-B62A-F521-3808-2D9BE9CE35FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70ABE70E-A431-4021-8BC1-7C4A85922BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341981</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>192950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657951</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD6FDB9-430B-47FE-9732-EF2378914C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36636</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>478118</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F153EB6C-4F96-A612-9052-9BD355006FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,25 +5603,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>702235</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502477</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>97119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE864B9-AD58-F6A9-D2DB-C31D3F0DAF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6ADF3DE-79A1-4D2E-957E-E853D78FF4D4}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F17" xr:uid="{1E00BD67-58FF-C24F-828F-C39D3354CF0D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{67A94B3E-BF9C-DE41-B186-6E78847DC8F5}" name="Digitaler Output" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{9AC8E243-F284-FE4B-AAD3-C7C022A9F173}" name="Bitmuster" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FAF9267E-DD82-604A-BBB4-50B2A475EFC4}" name="Erwarteter Spannungswert, [V]" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{21446CE3-7E50-4CC4-8EC5-83DCF227F202}" name="Digitaler _x000a_Output" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{EEBD2168-CFC0-4167-8850-5578ED64C751}" name="Bitmuster" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{04ED701A-DC98-4234-AC05-5EEF8BA16F86}" name="Erwarteter _x000a_Spannungswert [V]" dataDxfId="9">
       <calculatedColumnFormula>C1+0.32</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CBC833C5-F835-E740-AF60-BEF05AF78997}" name="Tatsächlicher Spannungswert, [V]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{962940AD-7301-4740-ADD3-72ECC3377F93}" name="Abweichung, [V]" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{055ADADC-6CC3-455E-97E2-AF02EE526E68}" name="Tatsächlicher _x000a_Spannungswert [V]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{15069BF9-46FF-48D6-AB4A-AEEB4F83D3DB}" name="Abweichung _x000a_[V]" dataDxfId="7">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{19C856E6-0804-8B4C-B783-32E60503A52E}" name="Abweichung, %" dataDxfId="0">
-      <calculatedColumnFormula>(ABS(E2)/C2)*100</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{5639E493-7998-4041-BA6F-EBEE71612211}" name="Abweichung_x000a_von der Stufengröße [%]" dataDxfId="6">
+      <calculatedColumnFormula>((ABS(E2)/0.32)*100)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9105732F-5523-4CF0-A04C-AC16960595CE}" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D12" xr:uid="{D7F4808F-8E14-6E4D-9025-90A10CB2E94D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2616563C-0313-43E2-8F05-FE78B6B6B1C9}" name="Digitaler _x000a_Output" dataDxfId="3">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5788ADED-091C-4E87-86C4-BD2FC352196C}" name="Erwarteter _x000a_Spannungswert [V]" dataDxfId="2">
+      <calculatedColumnFormula>B1+0.02</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2A28CFE5-D668-48B8-8F4A-8545655636D8}" name="Tatsächlicher _x000a_Spannungswert [V]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{069107FC-0DAB-48EB-BD7E-0508DC147972}" name="DNL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1710,50 +5976,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A5E22A-057D-0E49-ADED-789EC45B45EC}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A23553-AF4A-4199-BBBF-698336A8EC4E}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="166" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="125" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>16</f>
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>0.32</v>
@@ -1766,17 +6033,21 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F17" si="0">(ABS(E2)/C2)*100</f>
+        <f t="shared" ref="F2:F17" si="0">((ABS(E2)/0.32)*100)</f>
         <v>0.31250000000000028</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <f>(ABS(E2))</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+16</f>
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <f>C2+0.32</f>
@@ -1791,19 +6062,23 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>0.15625000000000014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.31250000000000028</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H17" si="2">(ABS(E3))</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A16" si="2">A3+16</f>
+        <f t="shared" ref="A4:A16" si="3">A3+16</f>
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C17" si="3">C3+0.32</f>
+        <f t="shared" ref="C4:C17" si="4">C3+0.32</f>
         <v>0.96</v>
       </c>
       <c r="D4" s="3">
@@ -1815,19 +6090,23 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>0.72916666666666741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.1875000000000018</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.28</v>
       </c>
       <c r="D5" s="3">
@@ -1839,19 +6118,23 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.23437500000000888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93750000000003553</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
       <c r="D6" s="3">
@@ -1863,19 +6146,23 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>6.2499999999993117E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.31249999999996558</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9999999999988987E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="D7" s="3">
@@ -1887,19 +6174,23 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.10416666666665519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62499999999993117</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="D8" s="3">
@@ -1913,17 +6204,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.56</v>
       </c>
       <c r="D9" s="3">
@@ -1935,19 +6230,23 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.23437499999999153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.8749999999999323</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.9999999999997833E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.88</v>
       </c>
       <c r="D10" s="3">
@@ -1959,19 +6258,23 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.24305555555555963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.1875000000000364</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0000000000001172E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="D11" s="3">
@@ -1983,19 +6286,23 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>9.3750000000003567E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93750000000003553</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5199999999999996</v>
       </c>
       <c r="D12" s="3">
@@ -2007,19 +6314,23 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.39772727272727948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.3750000000000728</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000234E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8399999999999994</v>
       </c>
       <c r="D13" s="3">
@@ -2031,19 +6342,23 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>7.812500000001453E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93750000000017431</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000005578E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1599999999999993</v>
       </c>
       <c r="D14" s="3">
@@ -2055,19 +6370,23 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>4.8076923076896441E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62499999999965361</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9999999999988916E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4799999999999995</v>
       </c>
       <c r="D15" s="3">
@@ -2079,19 +6398,23 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>6.6964285714288266E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.93750000000003553</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="D16" s="3">
@@ -2103,19 +6426,23 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>4.1666666666662078E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62499999999993117</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f>A16+15</f>
         <v>255</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.12</v>
       </c>
       <c r="D17" s="3">
@@ -2127,7 +6454,11 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>1.9531250000006523E-2</v>
+        <v>0.31250000000010436</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.000000000000334E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2141,242 +6472,910 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E5653C-13E3-0D40-B754-10551911D7AF}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B8F87A-9691-41BB-8F67-227A2002ABBD}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="170" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>124</v>
       </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:B4" si="0">B3-0.02</f>
+      <c r="B2" s="3">
+        <f>B3-0.02</f>
         <v>2.48</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>2.48</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>((C3-C2)/0.02)-1</f>
         <v>9.9999999999989875E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <f>A2+1</f>
         <v>125</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
+        <f>B4-0.02</f>
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="0">((C4-C3)/0.02)-1</f>
+        <v>-0.14999999999998259</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>126</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B5-0.02</f>
+        <v>2.52</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="1">((C4-C3)/0.02)-1</f>
-        <v>-0.14999999999998259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" ref="A4:A9" si="2">A3+1</f>
-        <v>126</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.5190000000000001</v>
-      </c>
-      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f>B6-0.02</f>
         <v>2.54</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2.5390000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34999999999998455</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <f t="shared" si="1"/>
-        <v>0.34999999999998455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>2.56</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>2.5659999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f>B6+0.02</f>
         <v>2.58</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>2.5819999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ref="B8:B11" si="3">B7+0.02</f>
+      <c r="B8" s="3">
+        <f>B7+0.02</f>
         <v>2.6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>2.5979999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000657</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <f t="shared" si="1"/>
-        <v>0.15000000000000657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="3"/>
+      <c r="B9" s="3">
+        <f>B8+0.02</f>
         <v>2.62</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>2.621</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
         <v>4.9999999999995381E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="F9" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <f>A9+1</f>
         <v>132</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="3"/>
+      <c r="B10" s="3">
+        <f>B9+0.02</f>
         <v>2.64</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>2.6419999999999999</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f>A10+1</f>
         <v>133</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
+        <f>B10+0.02</f>
+        <v>2.66</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999993605E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f>A11+1</f>
+        <v>134</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.681</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>124</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="C22" s="7">
+        <f>C24-0.02</f>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>125</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <f>A22+1</f>
+        <v>125</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24:C29" si="2">C26-0.02</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>126</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <f t="shared" ref="A26:A40" si="3">A24+1</f>
+        <v>126</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="2"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="2"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32:C40" si="4">C30+0.02</f>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="4"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.621</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="4"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2.621</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="4"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="4"/>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="4"/>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B45" s="7">
+        <f>B47-0.02</f>
+        <v>2.48</v>
+      </c>
+      <c r="C45" s="4">
+        <v>124</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="C46" s="4">
+        <v>125</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2.4910000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" ref="B47:B52" si="5">B49-0.02</f>
+        <v>2.5</v>
+      </c>
+      <c r="C47" s="4">
+        <f>C45+1</f>
+        <v>125</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2.4910000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="B48" s="7">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="C48" s="4">
+        <v>126</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="B49" s="7">
+        <f t="shared" si="5"/>
+        <v>2.52</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" ref="C49:C63" si="6">C47+1</f>
+        <v>126</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="B50" s="7">
+        <f t="shared" si="5"/>
+        <v>2.52</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2.5289999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="B51" s="7">
+        <f t="shared" si="5"/>
+        <v>2.54</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="D51" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2.5289999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="B52" s="7">
+        <f t="shared" si="5"/>
+        <v>2.54</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E52" s="12">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E53" s="12">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="E54" s="12">
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="B55" s="7">
+        <f t="shared" ref="B55:B63" si="7">B53+0.02</f>
+        <v>2.58</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="E55" s="12">
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="B56" s="7">
+        <f t="shared" si="7"/>
+        <v>2.58</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2.59</v>
+      </c>
+      <c r="E56" s="12">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="B57" s="7">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2.59</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="B58" s="7">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2.61</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>2.621</v>
+      </c>
+      <c r="B59" s="7">
+        <f t="shared" si="7"/>
+        <v>2.62</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2.61</v>
+      </c>
+      <c r="E59" s="12">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>2.621</v>
+      </c>
+      <c r="B60" s="7">
+        <f t="shared" si="7"/>
+        <v>2.62</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="E60" s="12">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="B61" s="7">
+        <f t="shared" si="7"/>
+        <v>2.64</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="E61" s="12">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="B62" s="7">
+        <f t="shared" si="7"/>
+        <v>2.64</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E62" s="12">
+        <v>2.6520000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="B63" s="7">
+        <f t="shared" si="7"/>
         <v>2.66</v>
       </c>
-      <c r="C11" s="1">
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
+      <c r="C63" s="4">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E63" s="12">
+        <v>2.6520000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1A770B-9EC1-C14E-9F6F-9AB6EF1BA5EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C05C7-6542-42A5-81AE-AF3B4E61F791}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2386,185 +7385,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C31BA-F075-FC4F-B7D4-1B074C620C31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14DFD8-B309-442F-AAE0-86B635A9E2B0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" style="4"/>
+    <col min="6" max="6" width="42.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <f>C2/10 -1</f>
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>9.75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D9" si="0">C3/10 -1</f>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>9.75</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>1000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="10">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>10000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <v>1111</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>-150</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>100000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>11111</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>170</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>1000000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>111111</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>170</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>10000000</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>1111111</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>170</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2573,13 +7574,753 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD24C-FC57-3C45-B03B-95DF1772DF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE9F3A-899A-4213-8E36-044F2B8C18DD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="4"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19C7C5D-A780-4F25-AF0F-B1C58693B99D}">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B21" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B33" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B45" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B51" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B57" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B62" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B24-'Differenzielle Nichtlinearität'!$B22</f>
+        <v>2.1999999999999797E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B26-'Differenzielle Nichtlinearität'!$B24</f>
+        <v>1.7000000000000348E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B28-'Differenzielle Nichtlinearität'!$B26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B30-'Differenzielle Nichtlinearität'!$B28</f>
+        <v>2.6999999999999691E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B32-'Differenzielle Nichtlinearität'!$B30</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B34-'Differenzielle Nichtlinearität'!$B32</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B68" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B36-'Differenzielle Nichtlinearität'!$B34</f>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B69" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B38-'Differenzielle Nichtlinearität'!$B36</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4">
+        <f>'Differenzielle Nichtlinearität'!$B40-'Differenzielle Nichtlinearität'!$B38</f>
+        <v>-2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A24-'Differenzielle Nichtlinearität'!$A22</f>
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A26-'Differenzielle Nichtlinearität'!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C24-'Differenzielle Nichtlinearität'!$C22</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A28-'Differenzielle Nichtlinearität'!$A26</f>
+        <v>1</v>
+      </c>
+      <c r="B75" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C26-'Differenzielle Nichtlinearität'!$C24</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A30-'Differenzielle Nichtlinearität'!$A28</f>
+        <v>1</v>
+      </c>
+      <c r="B76" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C28-'Differenzielle Nichtlinearität'!$C26</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A32-'Differenzielle Nichtlinearität'!$A30</f>
+        <v>1</v>
+      </c>
+      <c r="B77" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C30-'Differenzielle Nichtlinearität'!$C28</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A34-'Differenzielle Nichtlinearität'!$A32</f>
+        <v>1</v>
+      </c>
+      <c r="B78" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C32-'Differenzielle Nichtlinearität'!$C30</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A36-'Differenzielle Nichtlinearität'!$A34</f>
+        <v>1</v>
+      </c>
+      <c r="B79" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C34-'Differenzielle Nichtlinearität'!$C32</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A38-'Differenzielle Nichtlinearität'!$A36</f>
+        <v>1</v>
+      </c>
+      <c r="B80" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C36-'Differenzielle Nichtlinearität'!$C34</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <f>'Differenzielle Nichtlinearität'!$A40-'Differenzielle Nichtlinearität'!$A38</f>
+        <v>-132</v>
+      </c>
+      <c r="B81" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C38-'Differenzielle Nichtlinearität'!$C36</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4">
+        <f>'Differenzielle Nichtlinearität'!$C40-'Differenzielle Nichtlinearität'!$C38</f>
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>